--- a/biology/Zoologie/Aromobates_ericksonae/Aromobates_ericksonae.xlsx
+++ b/biology/Zoologie/Aromobates_ericksonae/Aromobates_ericksonae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aromobates ericksonae est une espèce d'amphibiens de la famille des Aromobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aromobates ericksonae est une espèce d'amphibiens de la famille des Aromobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Venezuela[1]. Elle se rencontre dans la cordillère de Mérida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Venezuela. Elle se rencontre dans la cordillère de Mérida.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ronna Erickson.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barrio-Amorós, &amp; Santos, 2012 : A phylogeny for Aromobates (Anura: Dendrobatidae) with description of three new species from the Andes of Venezuela, taxonomic comments on Aromobates saltuensis, A. inflexus, and notes on the conservation status of the genus. Zootaxa, no 3422, p. 1-31.</t>
         </is>
